--- a/src/main/resources/template/excel/export/deliverySum.xlsx
+++ b/src/main/resources/template/excel/export/deliverySum.xlsx
@@ -123,7 +123,7 @@
     <t>${obj.skuName}</t>
   </si>
   <si>
-    <t>${barCode}</t>
+    <t>${obj.barCode}</t>
   </si>
   <si>
     <t>${obj.spec}</t>
@@ -159,8 +159,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
@@ -188,6 +188,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -195,6 +211,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -204,6 +255,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -211,75 +270,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,42 +309,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -347,175 +347,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,21 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -582,50 +567,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +586,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -653,6 +638,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +673,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/src/main/resources/template/excel/export/deliverySum.xlsx
+++ b/src/main/resources/template/excel/export/deliverySum.xlsx
@@ -160,8 +160,8 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
@@ -188,16 +188,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,52 +243,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,17 +288,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,45 +319,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,36 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,17 +574,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,16 +631,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,147 +673,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1166,7 +1175,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1177,51 +1186,51 @@
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.875" customWidth="1"/>
     <col min="16" max="16" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1"/>
@@ -1230,40 +1239,40 @@
       <c r="P1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>23</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/deliverySum.xlsx
+++ b/src/main/resources/template/excel/export/deliverySum.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="5025"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -22,7 +21,7 @@
     <author>ccm</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>货号</t>
   </si>
@@ -127,6 +126,9 @@
     <t>${obj.barCode}</t>
   </si>
   <si>
+    <t>${obj.spec}</t>
+  </si>
+  <si>
     <t>${obj.unit}</t>
   </si>
   <si>
@@ -149,20 +151,21 @@
   </si>
   <si>
     <t>${obj.outAmount}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${obj.spec} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0000;[Red]0.0000"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,18 +189,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,12 +342,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -234,51 +556,350 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -568,14 +1189,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -584,50 +1206,50 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="19.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="4" customWidth="1"/>
     <col min="13" max="13" width="16.875" customWidth="1"/>
     <col min="16" max="16" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:16">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="M1"/>
@@ -635,76 +1257,82 @@
       <c r="O1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/deliverySum.xlsx
+++ b/src/main/resources/template/excel/export/deliverySum.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="4965"/>
+    <workbookView windowWidth="27570" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
@@ -19,10 +19,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>zhangq</author>
     <author>ccm</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -30,21 +31,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">OKDEER:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">jx:area(lastCell="L2")
-</t>
+          <t>jx:area(lastCell="L3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -52,26 +43,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">OKDEER:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(items="reportList" var="obj" lastCell="L2")
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -80,7 +52,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>配送缺货率分析</t>
+  </si>
   <si>
     <t>货号</t>
   </si>
@@ -121,6 +96,9 @@
     <t>${obj.skuCode}</t>
   </si>
   <si>
+    <t xml:space="preserve">${obj.skuName} </t>
+  </si>
+  <si>
     <t>${obj.barCode}</t>
   </si>
   <si>
@@ -152,22 +130,21 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${obj.skuName} </t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000;[Red]0.0000"/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,25 +161,163 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +326,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -239,13 +540,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,50 +801,83 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -591,148 +1167,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="12.625" style="4" customWidth="1"/>
     <col min="13" max="13" width="16.875" customWidth="1"/>
     <col min="16" max="16" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:16">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="3" ht="16.5" customHeight="1" spans="1:12">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>23</v>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/deliverySum.xlsx
+++ b/src/main/resources/template/excel/export/deliverySum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="N3")</t>
+          <t>jx:area(lastCell="N4")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>配送缺货率分析</t>
   </si>
@@ -152,6 +152,37 @@
   </si>
   <si>
     <t>${obj.DIAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(G3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(I3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(J3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(K3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(L3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(M3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(N3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -159,9 +190,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000;[Red]0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -246,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +313,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -289,6 +324,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -308,7 +411,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -590,7 +693,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,9 +819,38 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>22</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/deliverySum.xlsx
+++ b/src/main/resources/template/excel/export/deliverySum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,6 +33,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="N3")</t>
@@ -45,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="N3")</t>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>配送缺货率分析</t>
   </si>
@@ -122,9 +124,6 @@
   </si>
   <si>
     <t>${obj.outDealNum}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>发货金额</t>
@@ -176,6 +175,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -183,22 +183,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -587,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,16 +660,16 @@
         <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -707,18 +711,13 @@
         <v>21</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/deliverySum.xlsx
+++ b/src/main/resources/template/excel/export/deliverySum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,9 +33,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="N4")</t>
+          <t>jx:area(lastCell="N3")</t>
         </r>
       </text>
     </comment>
@@ -45,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="N3")</t>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>配送缺货率分析</t>
   </si>
@@ -122,9 +124,6 @@
   </si>
   <si>
     <t>${obj.outDealNum}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>发货金额</t>
@@ -152,37 +151,6 @@
   </si>
   <si>
     <t>${obj.DIAmount}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(I3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(J3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(K3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(L3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(M3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(N3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -190,10 +158,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000;[Red]0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -208,6 +175,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -215,22 +183,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -278,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,9 +285,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -324,74 +293,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -411,7 +312,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -690,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,16 +660,16 @@
         <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -810,47 +711,13 @@
         <v>21</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/deliverySum.xlsx
+++ b/src/main/resources/template/excel/export/deliverySum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,9 +60,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t>配送缺货率分析</t>
-  </si>
-  <si>
     <t>货号</t>
   </si>
   <si>
@@ -151,6 +148,10 @@
   </si>
   <si>
     <t>${obj.DIAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchName}配送缺货率分析</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -293,6 +294,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -312,7 +381,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -594,7 +663,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -630,46 +699,46 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -678,46 +747,46 @@
     </row>
     <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
